--- a/linac_primus_15MV/analyse/Data_Dose_Z.xlsx
+++ b/linac_primus_15MV/analyse/Data_Dose_Z.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,21 +444,13 @@
           <t>Dose (Gy)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sigma</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.403006044675692e-10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.31568436700924e-10</v>
+        <v>1.050213027653513e-09</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +458,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>7.694312201267373e-12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.223809232401955e-12</v>
+        <v>1.225313406294504e-09</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +466,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>3.295810499515106e-11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.314991254248611e-11</v>
+        <v>8.85409023876349e-10</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +474,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>1.276003885886112e-10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.62775467788579e-11</v>
+        <v>1.309173214281145e-09</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +482,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>8.154787400904695e-10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.984531316003626e-10</v>
+        <v>5.814919101787552e-10</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +490,7 @@
         <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>2.304048507539846e-09</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.582153238594458e-10</v>
+        <v>1.628901458161636e-09</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +498,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1.723501674710803e-09</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.228375037942158e-10</v>
+        <v>2.009008515102551e-09</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +506,7 @@
         <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>2.055617231988549e-09</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.379855698237293e-10</v>
+        <v>1.12875397917378e-09</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +514,7 @@
         <v>90</v>
       </c>
       <c r="B10" t="n">
-        <v>2.036784074732623e-09</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8.086956104769172e-10</v>
+        <v>1.687100792402418e-09</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +522,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>2.261513198931198e-09</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.283894043474959e-10</v>
+        <v>1.247051018005152e-09</v>
       </c>
     </row>
     <row r="12">
@@ -567,19 +532,13 @@
       <c r="B12" t="n">
         <v>2.046771863106756e-09</v>
       </c>
-      <c r="C12" t="n">
-        <v>6.675675567890949e-10</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>2.659366060697721e-09</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.569945308956051e-10</v>
+        <v>1.609808397695645e-09</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +546,7 @@
         <v>130</v>
       </c>
       <c r="B14" t="n">
-        <v>3.387937042020894e-09</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.070862176710818e-09</v>
+        <v>2.532905885033188e-09</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +554,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>1.508354663393163e-09</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.353540471515373e-10</v>
+        <v>2.40881203872334e-09</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +562,7 @@
         <v>150</v>
       </c>
       <c r="B16" t="n">
-        <v>1.561661910898238e-09</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8.577444310375881e-10</v>
+        <v>1.108929836846073e-09</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +570,7 @@
         <v>160</v>
       </c>
       <c r="B17" t="n">
-        <v>1.141036487517511e-09</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.273824627532008e-10</v>
+        <v>1.141141736660245e-09</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +578,7 @@
         <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>9.035347470209842e-11</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.722112450008311e-11</v>
+        <v>3.052585073604064e-09</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +586,7 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>1.234718854936645e-10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.913339262697548e-11</v>
+        <v>4.248930984829258e-09</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +594,7 @@
         <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>5.418920173694275e-11</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.41891982674958e-11</v>
+        <v>2.19375295706925e-09</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +602,7 @@
         <v>200</v>
       </c>
       <c r="B21" t="n">
-        <v>3.494111900856356e-12</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.494111900856356e-12</v>
+        <v>3.486064326096994e-09</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +610,7 @@
         <v>210</v>
       </c>
       <c r="B22" t="n">
-        <v>5.929226554179934e-11</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.472654274196742e-11</v>
+        <v>1.03105768367584e-09</v>
       </c>
     </row>
   </sheetData>
